--- a/NOUVEAUX CLIENTS DU 12 01 2026 MGT.xlsx
+++ b/NOUVEAUX CLIENTS DU 12 01 2026 MGT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mtncloud-my.sharepoint.com/personal/allassane_traore_mtn_com/Documents/HOME &amp; EPMO/PASSATION DROPPING/RAPPORT JOURNALIERS/MGT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9E835BD5-B86C-3D47-BBEF-46CB03298A56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:41000001_{F138A3F0-5433-CD4A-9EF5-F98C3BB93CE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1203,6 +1203,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
+  </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1281,7 +1284,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1298,6 +1301,8 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte 3" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
@@ -1685,12 +1690,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Feuil1"/>
-  <dimension ref="A1:T40"/>
+  <dimension ref="A1:T42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="B2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="D53" sqref="D53"/>
+      <selection pane="bottomLeft" activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.56640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1784,7 +1789,7 @@
       <c r="A2" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="8">
         <v>46034</v>
       </c>
       <c r="C2" s="6" t="s">
@@ -1844,7 +1849,7 @@
       <c r="A3" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="8">
         <v>46034</v>
       </c>
       <c r="C3" s="6" t="s">
@@ -1904,7 +1909,7 @@
       <c r="A4" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="8">
         <v>46034</v>
       </c>
       <c r="C4" s="6" t="s">
@@ -1964,7 +1969,7 @@
       <c r="A5" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="8">
         <v>46034</v>
       </c>
       <c r="C5" s="6" t="s">
@@ -2024,7 +2029,7 @@
       <c r="A6" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="8">
         <v>46034</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -2084,7 +2089,7 @@
       <c r="A7" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="8">
         <v>46034</v>
       </c>
       <c r="C7" s="6" t="s">
@@ -2144,7 +2149,7 @@
       <c r="A8" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="8">
         <v>46034</v>
       </c>
       <c r="C8" s="6" t="s">
@@ -2204,7 +2209,7 @@
       <c r="A9" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="8">
         <v>46034</v>
       </c>
       <c r="C9" s="6" t="s">
@@ -2264,7 +2269,7 @@
       <c r="A10" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="8">
         <v>46034</v>
       </c>
       <c r="C10" s="6" t="s">
@@ -2324,7 +2329,7 @@
       <c r="A11" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="8">
         <v>46034</v>
       </c>
       <c r="C11" s="6" t="s">
@@ -2384,7 +2389,7 @@
       <c r="A12" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="8">
         <v>46034</v>
       </c>
       <c r="C12" s="6" t="s">
@@ -2444,7 +2449,7 @@
       <c r="A13" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="8">
         <v>46034</v>
       </c>
       <c r="C13" s="6" t="s">
@@ -2504,7 +2509,7 @@
       <c r="A14" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14" s="8">
         <v>46034</v>
       </c>
       <c r="C14" s="6" t="s">
@@ -2564,7 +2569,7 @@
       <c r="A15" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15" s="8">
         <v>46034</v>
       </c>
       <c r="C15" s="6" t="s">
@@ -2624,7 +2629,7 @@
       <c r="A16" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16" s="8">
         <v>46034</v>
       </c>
       <c r="C16" s="6" t="s">
@@ -2684,7 +2689,7 @@
       <c r="A17" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17" s="8">
         <v>46034</v>
       </c>
       <c r="C17" s="6" t="s">
@@ -2744,7 +2749,7 @@
       <c r="A18" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B18" s="8">
         <v>46034</v>
       </c>
       <c r="C18" s="6" t="s">
@@ -2804,7 +2809,7 @@
       <c r="A19" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="6">
+      <c r="B19" s="8">
         <v>46034</v>
       </c>
       <c r="C19" s="6" t="s">
@@ -2864,7 +2869,7 @@
       <c r="A20" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="6">
+      <c r="B20" s="8">
         <v>46034</v>
       </c>
       <c r="C20" s="6" t="s">
@@ -2924,7 +2929,7 @@
       <c r="A21" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="6">
+      <c r="B21" s="8">
         <v>46034</v>
       </c>
       <c r="C21" s="6" t="s">
@@ -2984,7 +2989,7 @@
       <c r="A22" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="6">
+      <c r="B22" s="8">
         <v>46034</v>
       </c>
       <c r="C22" s="6" t="s">
@@ -3044,7 +3049,7 @@
       <c r="A23" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B23" s="6">
+      <c r="B23" s="8">
         <v>46034</v>
       </c>
       <c r="C23" s="6" t="s">
@@ -3104,7 +3109,7 @@
       <c r="A24" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="6">
+      <c r="B24" s="8">
         <v>46034</v>
       </c>
       <c r="C24" s="6" t="s">
@@ -3164,7 +3169,7 @@
       <c r="A25" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="6">
+      <c r="B25" s="8">
         <v>46034</v>
       </c>
       <c r="C25" s="6" t="s">
@@ -3224,7 +3229,7 @@
       <c r="A26" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B26" s="6">
+      <c r="B26" s="8">
         <v>46034</v>
       </c>
       <c r="C26" s="6" t="s">
@@ -3284,7 +3289,7 @@
       <c r="A27" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="6">
+      <c r="B27" s="8">
         <v>46034</v>
       </c>
       <c r="C27" s="6" t="s">
@@ -3344,7 +3349,7 @@
       <c r="A28" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B28" s="6">
+      <c r="B28" s="8">
         <v>46034</v>
       </c>
       <c r="C28" s="6" t="s">
@@ -3404,7 +3409,7 @@
       <c r="A29" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B29" s="6">
+      <c r="B29" s="8">
         <v>46034</v>
       </c>
       <c r="C29" s="6" t="s">
@@ -3464,7 +3469,7 @@
       <c r="A30" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B30" s="6">
+      <c r="B30" s="8">
         <v>46034</v>
       </c>
       <c r="C30" s="6" t="s">
@@ -3524,7 +3529,7 @@
       <c r="A31" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B31" s="6">
+      <c r="B31" s="8">
         <v>46034</v>
       </c>
       <c r="C31" s="6" t="s">
@@ -3584,7 +3589,7 @@
       <c r="A32" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B32" s="6">
+      <c r="B32" s="8">
         <v>46034</v>
       </c>
       <c r="C32" s="6" t="s">
@@ -3644,7 +3649,7 @@
       <c r="A33" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B33" s="6">
+      <c r="B33" s="8">
         <v>46034</v>
       </c>
       <c r="C33" s="6" t="s">
@@ -3704,7 +3709,7 @@
       <c r="A34" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B34" s="6">
+      <c r="B34" s="8">
         <v>46034</v>
       </c>
       <c r="C34" s="6" t="s">
@@ -3764,7 +3769,7 @@
       <c r="A35" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B35" s="6">
+      <c r="B35" s="8">
         <v>46034</v>
       </c>
       <c r="C35" s="6" t="s">
@@ -3824,7 +3829,7 @@
       <c r="A36" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B36" s="6">
+      <c r="B36" s="8">
         <v>46034</v>
       </c>
       <c r="C36" s="6" t="s">
@@ -3884,7 +3889,7 @@
       <c r="A37" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B37" s="6">
+      <c r="B37" s="8">
         <v>46034</v>
       </c>
       <c r="C37" s="6" t="s">
@@ -3944,7 +3949,7 @@
       <c r="A38" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B38" s="6">
+      <c r="B38" s="8">
         <v>46034</v>
       </c>
       <c r="C38" s="6" t="s">
@@ -4004,7 +4009,7 @@
       <c r="A39" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B39" s="6">
+      <c r="B39" s="8">
         <v>46034</v>
       </c>
       <c r="C39" s="6" t="s">
@@ -4064,7 +4069,7 @@
       <c r="A40" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B40" s="6">
+      <c r="B40" s="8">
         <v>46034</v>
       </c>
       <c r="C40" s="6" t="s">
@@ -4119,6 +4124,12 @@
       <c r="T40" s="6">
         <v>46034</v>
       </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B41" s="9"/>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B42" s="9"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:T40" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
@@ -4140,23 +4151,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="b632573c-fcf4-4086-a9c2-a54305b2f0f6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010027DB307E27C842479ED2BF10A1C70CF2" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="28b51eb66160b8559b654011f61a552a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="b632573c-fcf4-4086-a9c2-a54305b2f0f6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5f0f31593ddbd320e586646a0fa43ee1" ns3:_="">
     <xsd:import namespace="b632573c-fcf4-4086-a9c2-a54305b2f0f6"/>
@@ -4356,10 +4350,31 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="b632573c-fcf4-4086-a9c2-a54305b2f0f6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FA7BF83E-1739-4C99-A8C8-6FA112FCC655}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{48246788-D903-4A75-BEC3-83EA2BE96F4F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2000/xmlns/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="b632573c-fcf4-4086-a9c2-a54305b2f0f6"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -4376,13 +4391,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{48246788-D903-4A75-BEC3-83EA2BE96F4F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FA7BF83E-1739-4C99-A8C8-6FA112FCC655}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2000/xmlns/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="b632573c-fcf4-4086-a9c2-a54305b2f0f6"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>